--- a/Luban/Datas/reward.xlsx
+++ b/Luban/Datas/reward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\luban_examples\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335A3D60-6296-4FD7-B75B-CDD75F9DC8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF25435-B4DD-4F6E-94A4-B0021F4A80D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="32280" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="4350" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -533,19 +533,19 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.4140625" customWidth="1"/>
-    <col min="5" max="5" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -584,7 +584,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -623,7 +623,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -656,7 +656,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -695,7 +695,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1001</v>
       </c>
@@ -709,7 +709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="6">
         <v>1002</v>
       </c>
